--- a/StructureDefinition-exposure-risk-factors.xlsx
+++ b/StructureDefinition-exposure-risk-factors.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T08:24:04-04:00</t>
+    <t>2021-10-06T18:59:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Represents the exposure risk factors for the monitoree. This field is read-only.</t>
+    <t>Represents the exposure risk factors for the monitoree.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -315,7 +315,7 @@
     <t>Contact Of Known Case</t>
   </si>
   <si>
-    <t>Represents whether or not a monitoree has known exposure to a probable or confirmed case. This field is read-only.</t>
+    <t>Represents whether or not a monitoree has known exposure to a probable or confirmed case.</t>
   </si>
   <si>
     <t>was-in-health-care-facility-with-known-cases</t>
@@ -328,7 +328,7 @@
     <t>Was in Health Care Facility with Known Cases</t>
   </si>
   <si>
-    <t>Represents whether or not a monitoree entered or was treated in a health care facility that had known cases. This field is read-only.</t>
+    <t>Represents whether or not a monitoree entered or was treated in a health care facility that had known cases.</t>
   </si>
   <si>
     <t>laboratory-personnel</t>
@@ -341,7 +341,7 @@
     <t>Laboratory Personnel</t>
   </si>
   <si>
-    <t>Represents whether or not a monitoree works in a laboratory or testing facility. This field is read-only.</t>
+    <t>Represents whether or not a monitoree works in a laboratory or testing facility.</t>
   </si>
   <si>
     <t>healthcare-personnel</t>
@@ -354,7 +354,7 @@
     <t>Healthcare Personnel</t>
   </si>
   <si>
-    <t>Represents whether or not a monitoree works in a healthcare facility. This field is read-only.</t>
+    <t>Represents whether or not a monitoree works in a healthcare facility.</t>
   </si>
   <si>
     <t>member-of-a-common-exposure-cohort</t>
@@ -367,7 +367,7 @@
     <t>Member of a Common Exposure Cohort</t>
   </si>
   <si>
-    <t>Represents whether or not a monitoree was exposed via a common source or gathering. This field is read-only.</t>
+    <t>Represents whether or not a monitoree was exposed via a common source or gathering.</t>
   </si>
   <si>
     <t>travel-from-affected-country-or-area</t>
@@ -380,7 +380,7 @@
     <t>Travel From Affected Country or Area</t>
   </si>
   <si>
-    <t>Represents whether or not a monitoree traveled from a country or area with a high prevalence of disease within the exposure period. This field is read-only.</t>
+    <t>Represents whether or not a monitoree traveled from a country or area with a high prevalence of disease within the exposure period.</t>
   </si>
   <si>
     <t>crew-on-passenger-or-cargo-flight</t>
@@ -393,7 +393,7 @@
     <t>Crew on Passenger or Cargo Flight</t>
   </si>
   <si>
-    <t>Represents whether or not a monitoree works on a passenger, cargo, or other commercial plane. This field is read-only.</t>
+    <t>Represents whether or not a monitoree works on a passenger, cargo, or other commercial plane.</t>
   </si>
   <si>
     <t>Extension.url</t>

--- a/StructureDefinition-exposure-risk-factors.xlsx
+++ b/StructureDefinition-exposure-risk-factors.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$14</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="137">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T18:59:21-05:00</t>
+    <t>2021-12-01T10:26:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -394,6 +394,19 @@
   </si>
   <si>
     <t>Represents whether or not a monitoree works on a passenger, cargo, or other commercial plane.</t>
+  </si>
+  <si>
+    <t>common-exposure-cohort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://saraalert.org/StructureDefinition/common-exposure-cohort}
+</t>
+  </si>
+  <si>
+    <t>Common Exposure Cohort</t>
+  </si>
+  <si>
+    <t>Represents where common exposure cohorts for the monitoree.</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -749,7 +762,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1920,23 +1933,25 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>73</v>
@@ -1953,16 +1968,14 @@
       <c r="L12" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>73</v>
@@ -2004,27 +2017,27 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2032,10 +2045,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>73</v>
@@ -2047,22 +2060,24 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>73</v>
@@ -2104,10 +2119,10 @@
         <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -2116,14 +2131,114 @@
         <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" hidden="true">
+      <c r="A14" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>127</v>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ13">
+  <autoFilter ref="A1:AJ14">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2133,7 +2248,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI12">
+  <conditionalFormatting sqref="A2:AI13">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
